--- a/Анализ рынка труда (тестирование).xlsx
+++ b/Анализ рынка труда (тестирование).xlsx
@@ -996,8 +996,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A76" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A103" activeCellId="0" sqref="103:103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="100" ht="14.25">
       <c r="B100" s="2">
-        <f t="shared" ref="B100:B106" si="3">SUM(C100:W100)</f>
+        <f t="shared" ref="B100:B107" si="3">SUM(C100:W100)</f>
         <v>0</v>
       </c>
     </row>
@@ -2853,10 +2853,7 @@
       </c>
     </row>
     <row r="103" ht="14.25">
-      <c r="B103" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" ht="14.25">
       <c r="B104" s="2">
@@ -2867,94 +2864,100 @@
     <row r="105" ht="14.25">
       <c r="B105" s="2">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="M105">
-        <v>1</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="O105">
-        <v>1</v>
-      </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-      <c r="Q105">
-        <v>1</v>
-      </c>
-      <c r="R105">
-        <v>1</v>
-      </c>
-      <c r="S105">
-        <v>1</v>
-      </c>
-      <c r="T105">
-        <v>1</v>
-      </c>
-      <c r="U105">
-        <v>1</v>
-      </c>
-      <c r="V105">
-        <v>1</v>
-      </c>
-      <c r="Y105">
-        <v>1</v>
-      </c>
-      <c r="Z105">
-        <v>1</v>
-      </c>
-      <c r="AA105">
-        <v>1</v>
-      </c>
-      <c r="AB105">
-        <v>1</v>
-      </c>
-      <c r="AC105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" ht="14.25">
       <c r="B106" s="2">
         <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>1</v>
+      </c>
+      <c r="Y106">
+        <v>1</v>
+      </c>
+      <c r="Z106">
+        <v>1</v>
+      </c>
+      <c r="AA106">
+        <v>1</v>
+      </c>
+      <c r="AB106">
+        <v>1</v>
+      </c>
+      <c r="AC106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="B107" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="14.25"/>
+    <row r="108" ht="14.25"/>
   </sheetData>
-  <sortState ref="A2:AC87" columnSort="0">
-    <sortCondition sortBy="value" descending="1" ref="B2:B87"/>
+  <sortState ref="A2:AC88" columnSort="0">
+    <sortCondition sortBy="value" descending="1" ref="B2:B88"/>
   </sortState>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
